--- a/samples/data/test_data.xlsx
+++ b/samples/data/test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16425" windowHeight="11790"/>
+    <workbookView windowWidth="16785" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,12 +62,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,84 +77,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,29 +191,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,187 +229,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +420,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,6 +443,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -460,46 +477,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,159 +509,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1035,7 +1031,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -1093,7 +1089,7 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>100</v>
       </c>
     </row>
@@ -1105,13 +1101,12 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5">
-        <v>100</v>
-      </c>
+      <c r="D5" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/samples/data/test_data.xlsx
+++ b/samples/data/test_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>事件</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>python应用</t>
+  </si>
+  <si>
+    <t>学习java编程</t>
   </si>
 </sst>
 </file>
@@ -77,6 +80,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -84,21 +108,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,14 +116,23 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,24 +140,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -146,14 +150,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,14 +161,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -191,6 +179,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -199,15 +195,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -229,187 +232,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,15 +423,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -443,21 +437,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,6 +474,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -510,13 +500,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,10 +531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -540,142 +543,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1028,13 +1028,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -1089,7 +1089,7 @@
       <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1101,12 +1101,62 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
     <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/samples/data/test_data.xlsx
+++ b/samples/data/test_data.xlsx
@@ -16,48 +16,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
-  <si>
-    <t>事件</t>
-  </si>
-  <si>
-    <t>步骤序号</t>
-  </si>
-  <si>
-    <t>步骤操作</t>
-  </si>
-  <si>
-    <t>完成情况</t>
-  </si>
-  <si>
-    <t>学习python编程</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+  <si>
+    <t>测试用例编号</t>
+  </si>
+  <si>
+    <t>测试用例名称</t>
+  </si>
+  <si>
+    <t>用例执行</t>
+  </si>
+  <si>
+    <t>测试用例步骤</t>
+  </si>
+  <si>
+    <t>接口名称</t>
+  </si>
+  <si>
+    <t>请求</t>
+  </si>
+  <si>
+    <t>case01</t>
+  </si>
+  <si>
+    <t>测试能否正确执行获取access_token接口</t>
+  </si>
+  <si>
+    <t>是</t>
   </si>
   <si>
     <t>step_01</t>
   </si>
   <si>
-    <t>购买微课</t>
+    <t>获取access_token接口</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>case02</t>
+  </si>
+  <si>
+    <t>测试能否正确新增用户标签</t>
+  </si>
+  <si>
+    <t>否</t>
   </si>
   <si>
     <t>step_02</t>
   </si>
   <si>
-    <t>根据微课搭建好环境</t>
-  </si>
-  <si>
-    <t>step_03</t>
-  </si>
-  <si>
-    <t>做好笔记</t>
-  </si>
-  <si>
-    <t>step_04</t>
-  </si>
-  <si>
-    <t>python应用</t>
-  </si>
-  <si>
-    <t>学习java编程</t>
+    <t>创建标签接口</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>case03</t>
+  </si>
+  <si>
+    <t>测试能否正确删除用户标签</t>
+  </si>
+  <si>
+    <t>删除标签接口</t>
   </si>
 </sst>
 </file>
@@ -67,8 +88,8 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -94,21 +115,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,30 +153,30 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -162,14 +199,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -179,45 +208,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,187 +253,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,6 +444,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,11 +495,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,17 +514,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -500,26 +534,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,150 +552,153 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1028,20 +1052,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1054,108 +1078,130 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>100</v>
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
-        <v>100</v>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1"/>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1">
-        <v>100</v>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:1">
       <c r="A7" s="1"/>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1">
-        <v>100</v>
-      </c>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1"/>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="D4:D5"/>
+  <mergeCells count="1">
     <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
